--- a/Documents/Project Manage/Team Backlog.xlsx
+++ b/Documents/Project Manage/Team Backlog.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cookie/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GithubProjects\Hippocampus\Documents\Project Manage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642AAF00-B477-EC4B-9239-2CCEE7C51994}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1A9A1B-30F7-4D0D-A253-6459348ACC09}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="1400" windowWidth="14300" windowHeight="13600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4860" yWindow="2865" windowWidth="15825" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Table 1</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>1.HeavenGate支持文字控制符2.Unity支持文字控制符3.基础UI加入游戏</t>
+  </si>
+  <si>
+    <t>人设和LOGO，主角，女主角，典狱长的人设，</t>
   </si>
 </sst>
 </file>
@@ -1439,9 +1442,9 @@
       <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="256" width="16.33203125" style="1" customWidth="1"/>
+    <col min="1" max="256" width="16.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="27.75" customHeight="1">
@@ -1474,7 +1477,7 @@
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="82" customHeight="1">
+    <row r="3" spans="1:7" ht="81.95" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -1495,7 +1498,7 @@
       </c>
       <c r="G3" s="7"/>
     </row>
-    <row r="4" spans="1:7" ht="53" customHeight="1">
+    <row r="4" spans="1:7" ht="53.1" customHeight="1">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
@@ -1516,7 +1519,7 @@
       </c>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7" ht="32" customHeight="1">
+    <row r="5" spans="1:7" ht="51.75" customHeight="1">
       <c r="A5" s="8" t="s">
         <v>10</v>
       </c>
@@ -1533,11 +1536,11 @@
         <v>16</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7" ht="20" customHeight="1">
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A6" s="12"/>
       <c r="B6" s="13"/>
       <c r="C6" s="11"/>
@@ -1546,7 +1549,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:7" ht="20" customHeight="1">
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
       <c r="C7" s="11"/>
@@ -1555,7 +1558,7 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:7" ht="20" customHeight="1">
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A8" s="12"/>
       <c r="B8" s="13"/>
       <c r="C8" s="11"/>
@@ -1564,7 +1567,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:7" ht="20" customHeight="1">
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
       <c r="C9" s="11"/>
@@ -1573,7 +1576,7 @@
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:7" ht="20" customHeight="1">
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A10" s="12"/>
       <c r="B10" s="13"/>
       <c r="C10" s="11"/>
@@ -1582,7 +1585,7 @@
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:7" ht="20" customHeight="1">
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="11"/>
@@ -1591,7 +1594,7 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
     </row>
-    <row r="12" spans="1:7" ht="20" customHeight="1">
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="12"/>
       <c r="B12" s="13"/>
       <c r="C12" s="11"/>
@@ -1600,7 +1603,7 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
     </row>
-    <row r="13" spans="1:7" ht="20" customHeight="1">
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="11"/>
@@ -1609,7 +1612,7 @@
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
     </row>
-    <row r="14" spans="1:7" ht="20" customHeight="1">
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="C14" s="11"/>
@@ -1618,7 +1621,7 @@
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
     </row>
-    <row r="15" spans="1:7" ht="20" customHeight="1">
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="11"/>
@@ -1627,7 +1630,7 @@
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
     </row>
-    <row r="16" spans="1:7" ht="20" customHeight="1">
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="12"/>
       <c r="B16" s="13"/>
       <c r="C16" s="11"/>
@@ -1636,7 +1639,7 @@
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
     </row>
-    <row r="17" spans="1:7" ht="20" customHeight="1">
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="11"/>
@@ -1645,7 +1648,7 @@
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
     </row>
-    <row r="18" spans="1:7" ht="20" customHeight="1">
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A18" s="12"/>
       <c r="B18" s="13"/>
       <c r="C18" s="11"/>
@@ -1654,7 +1657,7 @@
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
     </row>
-    <row r="19" spans="1:7" ht="20" customHeight="1">
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
       <c r="C19" s="11"/>
@@ -1663,7 +1666,7 @@
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
     </row>
-    <row r="20" spans="1:7" ht="20" customHeight="1">
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="12"/>
       <c r="B20" s="13"/>
       <c r="C20" s="11"/>
@@ -1672,7 +1675,7 @@
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
     </row>
-    <row r="21" spans="1:7" ht="20" customHeight="1">
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
       <c r="C21" s="11"/>
@@ -1681,7 +1684,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
     </row>
-    <row r="22" spans="1:7" ht="20" customHeight="1">
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="12"/>
       <c r="B22" s="13"/>
       <c r="C22" s="11"/>
@@ -1690,7 +1693,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
-    <row r="23" spans="1:7" ht="20" customHeight="1">
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
       <c r="C23" s="11"/>

--- a/Documents/Project Manage/Team Backlog.xlsx
+++ b/Documents/Project Manage/Team Backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GithubProjects\Hippocampus\Documents\Project Manage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1A9A1B-30F7-4D0D-A253-6459348ACC09}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35EBB0F8-FE44-44B4-8DDC-0AA60102E117}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4860" yWindow="2865" windowWidth="15825" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
   <si>
     <t>Table 1</t>
   </si>
@@ -88,6 +88,9 @@
   </si>
   <si>
     <t>人设和LOGO，主角，女主角，典狱长的人设，</t>
+  </si>
+  <si>
+    <t>完成剧本</t>
   </si>
 </sst>
 </file>
@@ -1439,7 +1442,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.28515625" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -1549,37 +1552,53 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
+    <row r="7" spans="1:7" ht="23.25" customHeight="1">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3">
+        <v>1.4</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1.18</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1.25</v>
+      </c>
+      <c r="F7" s="3"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="11"/>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
+    <row r="8" spans="1:7" ht="80.099999999999994" customHeight="1">
+      <c r="A8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
+    <row r="9" spans="1:7" ht="80.099999999999994" customHeight="1">
+      <c r="A9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="10"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="11"/>
+    <row r="10" spans="1:7" ht="80.099999999999994" customHeight="1">
+      <c r="A10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="9"/>
+      <c r="C10" s="10"/>
       <c r="D10" s="11"/>
       <c r="E10" s="11"/>
       <c r="F10" s="11"/>
